--- a/public_html/archivos/2010_1058_EAU.xlsx
+++ b/public_html/archivos/2010_1058_EAU.xlsx
@@ -11,12 +11,12 @@
     <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
     <sheet name="Hoja3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="133">
   <si>
     <t>INSTITUCION</t>
   </si>
@@ -285,9 +285,6 @@
     <t>GASTO_MAT_PRIMA</t>
   </si>
   <si>
-    <t>CODIGO</t>
-  </si>
-  <si>
     <t>UNIVERSIDAD ESTATAL AMAZÓNICA</t>
   </si>
   <si>
@@ -366,9 +363,6 @@
     <t/>
   </si>
   <si>
-    <t>-</t>
-  </si>
-  <si>
     <t>INGENIERÍA AGROPECUARIA</t>
   </si>
   <si>
@@ -394,12 +388,6 @@
   </si>
   <si>
     <t>ENERGÍAS RENOVABLES Y MEDIO AMBIENTE</t>
-  </si>
-  <si>
-    <t>04707</t>
-  </si>
-  <si>
-    <t>VIGENTE</t>
   </si>
   <si>
     <t>INGENIERÍA EN TURISMO</t>
@@ -837,10 +825,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:CM8"/>
+  <dimension ref="A1:CK8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection sqref="A1:H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -925,13 +913,11 @@
     <col min="87" max="87" width="11.5703125" bestFit="1" customWidth="1"/>
     <col min="88" max="88" width="18.42578125" bestFit="1" customWidth="1"/>
     <col min="89" max="89" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="90" max="90" width="7" bestFit="1" customWidth="1"/>
-    <col min="91" max="91" width="7.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:91" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:89" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="8" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="B1" s="8"/>
       <c r="C1" s="8"/>
@@ -941,9 +927,9 @@
       <c r="G1" s="8"/>
       <c r="H1" s="8"/>
     </row>
-    <row r="2" spans="1:91" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:89" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="B2" s="9"/>
       <c r="C2" s="9"/>
@@ -953,7 +939,7 @@
       <c r="G2" s="9"/>
       <c r="H2" s="9"/>
     </row>
-    <row r="4" spans="1:91" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
@@ -1221,106 +1207,100 @@
       <c r="CK4" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="CL4" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="CM4" s="1" t="s">
-        <v>45</v>
-      </c>
     </row>
-    <row r="5" spans="1:91" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
         <v>1058</v>
       </c>
       <c r="B5" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="C5" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="D5" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="E5" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="F5" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="G5" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="F5" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="G5" s="4" t="s">
+      <c r="H5" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="H5" s="4" t="s">
+      <c r="I5" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="I5" s="4" t="s">
+      <c r="J5" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="K5" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="L5" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="J5" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="K5" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="L5" s="4" t="s">
+      <c r="M5" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="M5" s="4" t="s">
+      <c r="N5" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="N5" s="4" t="s">
+      <c r="O5" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="O5" s="4" t="s">
+      <c r="P5" s="4" t="s">
         <v>100</v>
-      </c>
-      <c r="P5" s="4" t="s">
-        <v>101</v>
       </c>
       <c r="Q5" s="5">
         <v>65</v>
       </c>
       <c r="R5" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="S5" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="S5" s="6" t="s">
+      <c r="T5" s="4" t="s">
         <v>103</v>
-      </c>
-      <c r="T5" s="4" t="s">
-        <v>104</v>
       </c>
       <c r="U5" s="5">
         <v>2</v>
       </c>
       <c r="V5" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="W5" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="W5" s="4" t="s">
-        <v>106</v>
-      </c>
       <c r="X5" s="4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="Y5" s="5">
         <v>1</v>
       </c>
       <c r="Z5" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="AA5" s="5">
+        <v>0</v>
+      </c>
+      <c r="AB5" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="AA5" s="5">
-        <v>0</v>
-      </c>
-      <c r="AB5" s="4" t="s">
-        <v>108</v>
-      </c>
       <c r="AC5" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AD5" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AE5" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AF5" s="4">
         <v>2002</v>
@@ -1332,25 +1312,25 @@
         <v>686</v>
       </c>
       <c r="AI5" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AJ5" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="AK5" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="AK5" s="4" t="s">
+      <c r="AL5" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="AL5" s="4" t="s">
+      <c r="AM5" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="AM5" s="4" t="s">
-        <v>112</v>
-      </c>
       <c r="AN5" s="4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="AO5" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AP5" s="4">
         <v>4.5</v>
@@ -1365,22 +1345,22 @@
         <v>256</v>
       </c>
       <c r="AT5" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="AU5" s="4">
         <v>0</v>
       </c>
       <c r="AV5" s="4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="AW5" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AX5" s="4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="AY5" s="4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="AZ5" s="4">
         <v>3</v>
@@ -1455,19 +1435,19 @@
         <v>150</v>
       </c>
       <c r="BX5" s="4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="BY5" s="4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="BZ5" s="4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="CA5" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="CB5" s="4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="CC5" s="4">
         <v>1</v>
@@ -1485,10 +1465,10 @@
         <v>0</v>
       </c>
       <c r="CH5" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="CI5" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="CJ5" s="7">
         <v>7606</v>
@@ -1496,106 +1476,100 @@
       <c r="CK5" s="7">
         <v>0</v>
       </c>
-      <c r="CL5" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="CM5" s="4" t="s">
-        <v>116</v>
-      </c>
     </row>
-    <row r="6" spans="1:91" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>1058</v>
       </c>
       <c r="B6" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="C6" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="D6" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="E6" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="F6" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="G6" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="F6" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="G6" s="4" t="s">
+      <c r="H6" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="H6" s="4" t="s">
+      <c r="I6" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="I6" s="4" t="s">
+      <c r="J6" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="K6" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="L6" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="J6" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="K6" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="L6" s="4" t="s">
+      <c r="M6" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="M6" s="4" t="s">
+      <c r="N6" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="N6" s="4" t="s">
-        <v>99</v>
-      </c>
       <c r="O6" s="4" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="P6" s="4" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="Q6" s="5">
         <v>65</v>
       </c>
       <c r="R6" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="S6" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="S6" s="6" t="s">
+      <c r="T6" s="4" t="s">
         <v>103</v>
-      </c>
-      <c r="T6" s="4" t="s">
-        <v>104</v>
       </c>
       <c r="U6" s="5">
         <v>2</v>
       </c>
       <c r="V6" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="W6" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="W6" s="4" t="s">
-        <v>106</v>
-      </c>
       <c r="X6" s="4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="Y6" s="5">
         <v>1</v>
       </c>
       <c r="Z6" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="AA6" s="5">
+        <v>0</v>
+      </c>
+      <c r="AB6" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="AA6" s="5">
-        <v>0</v>
-      </c>
-      <c r="AB6" s="4" t="s">
-        <v>108</v>
-      </c>
       <c r="AC6" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AD6" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AE6" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AF6" s="4">
         <v>2002</v>
@@ -1607,25 +1581,25 @@
         <v>686</v>
       </c>
       <c r="AI6" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AJ6" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="AK6" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="AK6" s="4" t="s">
+      <c r="AL6" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="AL6" s="4" t="s">
+      <c r="AM6" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="AM6" s="4" t="s">
-        <v>112</v>
-      </c>
       <c r="AN6" s="4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="AO6" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AP6" s="4">
         <v>4.5</v>
@@ -1640,22 +1614,22 @@
         <v>247</v>
       </c>
       <c r="AT6" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="AU6" s="4">
         <v>0</v>
       </c>
       <c r="AV6" s="4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="AW6" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AX6" s="4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="AY6" s="4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="AZ6" s="4">
         <v>3</v>
@@ -1730,19 +1704,19 @@
         <v>150</v>
       </c>
       <c r="BX6" s="4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="BY6" s="4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="BZ6" s="4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="CA6" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="CB6" s="4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="CC6" s="4">
         <v>9</v>
@@ -1760,10 +1734,10 @@
         <v>0</v>
       </c>
       <c r="CH6" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="CI6" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="CJ6" s="7">
         <v>7606</v>
@@ -1771,106 +1745,100 @@
       <c r="CK6" s="7">
         <v>0</v>
       </c>
-      <c r="CL6" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="CM6" s="4" t="s">
-        <v>116</v>
-      </c>
     </row>
-    <row r="7" spans="1:91" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
         <v>1058</v>
       </c>
       <c r="B7" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="C7" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="D7" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="E7" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="E7" s="4" t="s">
+      <c r="F7" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="G7" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="F7" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="G7" s="4" t="s">
+      <c r="H7" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="H7" s="4" t="s">
+      <c r="I7" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="I7" s="4" t="s">
+      <c r="J7" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="K7" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="L7" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="J7" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="K7" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="L7" s="4" t="s">
+      <c r="M7" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="M7" s="4" t="s">
+      <c r="N7" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="N7" s="4" t="s">
-        <v>99</v>
-      </c>
       <c r="O7" s="4" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="P7" s="4" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="Q7" s="5">
         <v>65</v>
       </c>
       <c r="R7" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="S7" s="6" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="T7" s="4" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="U7" s="5">
         <v>2</v>
       </c>
       <c r="V7" s="4" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="W7" s="4" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="X7" s="4" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="Y7" s="5">
         <v>1</v>
       </c>
       <c r="Z7" s="5" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="AA7" s="5">
         <v>0</v>
       </c>
       <c r="AB7" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="AC7" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AD7" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AE7" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AF7" s="4">
         <v>2002</v>
@@ -1882,25 +1850,25 @@
         <v>686</v>
       </c>
       <c r="AI7" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AJ7" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="AK7" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="AK7" s="4" t="s">
+      <c r="AL7" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="AL7" s="4" t="s">
+      <c r="AM7" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="AM7" s="4" t="s">
-        <v>112</v>
-      </c>
       <c r="AN7" s="4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="AO7" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AP7" s="4">
         <v>4.5</v>
@@ -1915,22 +1883,22 @@
         <v>231</v>
       </c>
       <c r="AT7" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="AU7" s="4">
         <v>0</v>
       </c>
       <c r="AV7" s="4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="AW7" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AX7" s="4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="AY7" s="4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="AZ7" s="4">
         <v>3</v>
@@ -2005,19 +1973,19 @@
         <v>150</v>
       </c>
       <c r="BX7" s="4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="BY7" s="4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="BZ7" s="4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="CA7" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="CB7" s="4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="CC7" s="4">
         <v>8</v>
@@ -2035,10 +2003,10 @@
         <v>0</v>
       </c>
       <c r="CH7" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="CI7" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="CJ7" s="7">
         <v>7606</v>
@@ -2046,106 +2014,100 @@
       <c r="CK7" s="7">
         <v>0</v>
       </c>
-      <c r="CL7" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="CM7" s="4" t="s">
-        <v>127</v>
-      </c>
     </row>
-    <row r="8" spans="1:91" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
         <v>1058</v>
       </c>
       <c r="B8" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="C8" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="D8" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="E8" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="E8" s="4" t="s">
+      <c r="F8" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="G8" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="F8" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="G8" s="4" t="s">
+      <c r="H8" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="H8" s="4" t="s">
+      <c r="I8" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="I8" s="4" t="s">
+      <c r="J8" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="K8" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="L8" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="J8" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="K8" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="L8" s="4" t="s">
+      <c r="M8" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="M8" s="4" t="s">
+      <c r="N8" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="N8" s="4" t="s">
-        <v>99</v>
-      </c>
       <c r="O8" s="4" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="P8" s="4" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="Q8" s="5">
         <v>65</v>
       </c>
       <c r="R8" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="S8" s="6" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="T8" s="4" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="U8" s="5">
         <v>1</v>
       </c>
       <c r="V8" s="4" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="W8" s="4" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="X8" s="4" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="Y8" s="5">
         <v>1</v>
       </c>
       <c r="Z8" s="5" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="AA8" s="5">
         <v>0</v>
       </c>
       <c r="AB8" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="AC8" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AD8" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AE8" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AF8" s="4">
         <v>2002</v>
@@ -2157,25 +2119,25 @@
         <v>686</v>
       </c>
       <c r="AI8" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AJ8" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="AK8" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="AK8" s="4" t="s">
+      <c r="AL8" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="AL8" s="4" t="s">
+      <c r="AM8" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="AM8" s="4" t="s">
-        <v>112</v>
-      </c>
       <c r="AN8" s="4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="AO8" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AP8" s="4">
         <v>4.5</v>
@@ -2190,22 +2152,22 @@
         <v>256</v>
       </c>
       <c r="AT8" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="AU8" s="4">
         <v>0</v>
       </c>
       <c r="AV8" s="4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="AW8" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AX8" s="4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="AY8" s="4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="AZ8" s="4">
         <v>3</v>
@@ -2280,19 +2242,19 @@
         <v>150</v>
       </c>
       <c r="BX8" s="4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="BY8" s="4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="BZ8" s="4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="CA8" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="CB8" s="4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="CC8" s="4">
         <v>4</v>
@@ -2310,22 +2272,16 @@
         <v>0</v>
       </c>
       <c r="CH8" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="CI8" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="CJ8" s="7">
         <v>3260</v>
       </c>
       <c r="CK8" s="7">
         <v>0</v>
-      </c>
-      <c r="CL8" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="CM8" s="4" t="s">
-        <v>116</v>
       </c>
     </row>
   </sheetData>
